--- a/Transcript Template.xlsx
+++ b/Transcript Template.xlsx
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -114,18 +114,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,18 +144,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,9 +167,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,8 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -233,39 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,31 +280,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,150 +460,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -885,59 +891,291 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,238 +1262,360 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,57 +1877,64 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="5" width="10.8611111111111" customWidth="1"/>
+    <col min="1" max="3" width="14.4259259259259" style="1"/>
+    <col min="4" max="4" width="5.52777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77777777777778" style="1" customWidth="1"/>
+    <col min="6" max="10" width="14.4259259259259" style="1"/>
+    <col min="11" max="11" width="9.27777777777778" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.4259259259259" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="4" ht="13.2" spans="1:11">
-      <c r="A4" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="4" ht="13.2" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" ht="13.2" spans="1:11">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" ht="13.2" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -1579,714 +1946,767 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" ht="13.2" spans="1:11">
+      <c r="J5" s="43"/>
+      <c r="K5" s="44">
+        <v>111.111</v>
+      </c>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" ht="13.2" spans="1:12">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="35" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="25"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" ht="13.2" spans="1:11">
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" ht="13.2" spans="1:12">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="25"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" ht="13.2" spans="1:11">
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" ht="13.2" spans="1:12">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" ht="13.2" spans="1:11">
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" ht="13.2" spans="1:12">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" ht="13.2" spans="1:11">
+      <c r="K9" s="24"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" ht="13.2" spans="1:12">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="35" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" ht="13.2" spans="1:11">
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" ht="13.2" spans="1:12">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="47" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" ht="13.2" spans="1:11">
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" ht="13.2" spans="1:12">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-    </row>
-    <row r="13" ht="13.2" spans="1:11">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" ht="13.2" spans="1:12">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" ht="13.2" spans="1:11">
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" ht="13.2" spans="1:12">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" ht="13.2" spans="1:11">
+      <c r="J14" s="31"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" ht="13.2" spans="1:12">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="29" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" ht="13.2" spans="1:12">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" ht="13.2" spans="1:11">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" ht="13.2" spans="1:12">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" ht="13.2" spans="1:11">
-      <c r="A18" s="35" t="s">
+      <c r="J17" s="31"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" ht="13.2" spans="1:12">
+      <c r="A18" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" ht="13.2" spans="1:11">
+      <c r="J18" s="31"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" ht="13.2" spans="1:12">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" ht="13.2" spans="1:11">
+      <c r="J19" s="31"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" ht="13.2" spans="1:12">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" ht="13.2" spans="1:11">
+      <c r="J20" s="31"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" ht="13.2" spans="1:12">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" ht="13.2" spans="1:11">
+      <c r="J21" s="31"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" ht="13.2" spans="1:12">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" ht="13.2" spans="1:11">
+      <c r="J22" s="29"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" ht="13.2" spans="1:12">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" ht="13.2" spans="1:11">
+      <c r="J23" s="29"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" ht="13.2" spans="1:12">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" ht="13.2" spans="1:11">
+      <c r="J24" s="29"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" ht="13.2" spans="1:12">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" ht="13.2" spans="1:11">
+      <c r="J25" s="29"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" ht="13.2" spans="1:12">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" ht="13.2" spans="1:11">
+      <c r="J26" s="29"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" ht="13.2" spans="1:12">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" ht="13.2" spans="1:11">
+      <c r="J27" s="29"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" ht="13.2" spans="1:12">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="29" t="s">
+      <c r="J28" s="29"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="66"/>
+    </row>
+    <row r="29" ht="13.2" spans="1:12">
+      <c r="A29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" ht="13.2" spans="1:11">
+      <c r="J29" s="29"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" ht="13.2" spans="1:12">
       <c r="A30" s="28"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" ht="13.2" spans="1:11">
-      <c r="A31" s="35" t="s">
+      <c r="J30" s="29"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="49"/>
+    </row>
+    <row r="31" ht="13.2" spans="1:12">
+      <c r="A31" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" ht="13.2" spans="1:11">
+      <c r="J31" s="29"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="66"/>
+    </row>
+    <row r="32" ht="13.2" spans="1:12">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" ht="13.2" spans="1:11">
+      <c r="J32" s="29"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" ht="13.2" spans="1:12">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" ht="13.2" spans="1:11">
+      <c r="J33" s="29"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="66"/>
+    </row>
+    <row r="34" ht="13.2" spans="1:12">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" ht="13.2" spans="1:11">
+      <c r="J34" s="29"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="66"/>
+    </row>
+    <row r="35" ht="13.2" spans="1:12">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" ht="13.2" spans="1:11">
+      <c r="J35" s="29"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="49"/>
+    </row>
+    <row r="36" ht="13.2" spans="1:12">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" ht="13.2" spans="1:11">
+      <c r="J36" s="29"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="49"/>
+    </row>
+    <row r="37" ht="13.2" spans="1:12">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" ht="13.2" spans="1:11">
+      <c r="J37" s="29"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="66"/>
+    </row>
+    <row r="38" ht="13.2" spans="1:12">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" ht="13.2" spans="1:11">
+      <c r="J38" s="29"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="49"/>
+    </row>
+    <row r="39" ht="13.2" spans="1:12">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" ht="13.2" spans="1:11">
+      <c r="J39" s="29"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="66"/>
+    </row>
+    <row r="40" ht="13.2" spans="1:12">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" ht="13.2" spans="1:11">
+      <c r="J40" s="29"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" ht="13.2" spans="1:12">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="29" t="s">
+      <c r="J41" s="29"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="66"/>
+    </row>
+    <row r="42" ht="13.2" spans="1:12">
+      <c r="A42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" ht="13.2" spans="1:11">
+      <c r="J42" s="29"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="49"/>
+    </row>
+    <row r="43" ht="13.2" spans="1:12">
       <c r="A43" s="28"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" ht="13.2" spans="1:11">
-      <c r="A44" s="35" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="66"/>
+    </row>
+    <row r="44" ht="13.2" spans="1:12">
+      <c r="A44" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" ht="13.2" spans="1:11">
+      <c r="J44" s="29"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
+    </row>
+    <row r="45" ht="13.2" spans="1:12">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" ht="13.2" spans="1:11">
+      <c r="J45" s="29"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="66"/>
+    </row>
+    <row r="46" ht="13.2" spans="1:12">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" ht="13.2" spans="1:11">
+      <c r="J46" s="29"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="49"/>
+    </row>
+    <row r="47" ht="13.2" spans="1:12">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" ht="13.2" spans="1:11">
+      <c r="J47" s="29"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="49"/>
+    </row>
+    <row r="48" ht="13.2" spans="1:12">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" ht="13.2" spans="1:11">
+      <c r="J48" s="29"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" ht="13.2" spans="1:12">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" ht="13.2" spans="1:11">
+      <c r="J49" s="29"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="49"/>
+    </row>
+    <row r="50" ht="13.2" spans="1:12">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" ht="13.2" spans="1:11">
+      <c r="J50" s="29"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="49"/>
+    </row>
+    <row r="51" ht="13.2" spans="1:12">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" ht="13.2" spans="1:11">
+      <c r="J51" s="29"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="49"/>
+    </row>
+    <row r="52" ht="13.2" spans="1:12">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" ht="13.2" spans="1:11">
+      <c r="J52" s="29"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="49"/>
+    </row>
+    <row r="53" ht="13.2" spans="1:12">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" ht="13.2" spans="1:11">
+      <c r="J53" s="29"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="49"/>
+    </row>
+    <row r="54" ht="13.2" spans="1:12">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" ht="13.2" spans="1:11">
-      <c r="A55" s="37" t="s">
+      <c r="J54" s="29"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="49"/>
+    </row>
+    <row r="55" ht="13.2" spans="1:12">
+      <c r="A55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39" t="s">
+      <c r="C55" s="37"/>
+      <c r="D55" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="42"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="63">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I4:L4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="I5:J5"/>
@@ -2297,7 +2717,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="A11:C11"/>
